--- a/StructureDefinition-Bemycareneteagreementdemand.xlsx
+++ b/StructureDefinition-Bemycareneteagreementdemand.xlsx
@@ -463,7 +463,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.code pattern</t>
+    <t>Slice based on the entry.resource type</t>
   </si>
   <si>
     <t>open</t>
@@ -850,7 +850,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/bepatient}
+    <t xml:space="preserve">Patient {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient}
 </t>
   </si>
   <si>
@@ -1067,7 +1067,7 @@
     <col min="25" max="25" width="49.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="37.98046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="35.3125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.58203125" customWidth="true" bestFit="true" hidden="true"/>
